--- a/players_stats/Devin Brown.xlsx
+++ b/players_stats/Devin Brown.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1990-91</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,92 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1945</v>
+        <v>93</v>
       </c>
       <c r="K2" t="n">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>612</v>
+        <v>35</v>
       </c>
       <c r="M2" t="n">
-        <v>0.464</v>
+        <v>0.343</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>12</v>
+      </c>
+      <c r="R2" t="n">
+        <v>34</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA2" t="n">
         <v>7</v>
       </c>
-      <c r="O2" t="n">
-        <v>34</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>277</v>
-      </c>
-      <c r="R2" t="n">
-        <v>578</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="U2" t="n">
-        <v>137</v>
-      </c>
-      <c r="V2" t="n">
-        <v>157</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="X2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>141</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>182</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>344</v>
-      </c>
       <c r="AB2" t="n">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="n">
         <v>14</v>
       </c>
-      <c r="AD2" t="n">
-        <v>137</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>161</v>
-      </c>
       <c r="AF2" t="n">
-        <v>712</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -663,9 +663,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -676,15 +674,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1991-92</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -694,92 +692,90 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>883</v>
+        <v>22</v>
       </c>
       <c r="K3" t="n">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>350</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>0.426</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
         <v>5</v>
       </c>
-      <c r="O3" t="n">
-        <v>22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>144</v>
-      </c>
       <c r="R3" t="n">
-        <v>328</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
-        <v>0.439</v>
+        <v>0.5</v>
       </c>
       <c r="T3" t="n">
-        <v>0.433</v>
+        <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>0.769</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="AF3" t="n">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -787,9 +783,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -800,7 +794,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1992-93</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -808,7 +802,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -818,92 +812,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2254</v>
+        <v>71</v>
       </c>
       <c r="K4" t="n">
-        <v>328</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>701</v>
+        <v>25</v>
       </c>
       <c r="M4" t="n">
-        <v>0.468</v>
+        <v>0.28</v>
       </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.317</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>302</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>619</v>
+        <v>24</v>
       </c>
       <c r="S4" t="n">
-        <v>0.488</v>
+        <v>0.292</v>
       </c>
       <c r="T4" t="n">
-        <v>0.486</v>
+        <v>0.28</v>
       </c>
       <c r="U4" t="n">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7929999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="X4" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>461</v>
+        <v>5</v>
       </c>
       <c r="AB4" t="n">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>874</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -911,9 +905,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ4" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -924,7 +916,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1993-94</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -932,7 +924,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -946,88 +938,88 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I5" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2867</v>
+        <v>627</v>
       </c>
       <c r="K5" t="n">
-        <v>490</v>
+        <v>85</v>
       </c>
       <c r="L5" t="n">
-        <v>1021</v>
+        <v>196</v>
       </c>
       <c r="M5" t="n">
-        <v>0.48</v>
+        <v>0.434</v>
       </c>
       <c r="N5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="P5" t="n">
-        <v>0.313</v>
+        <v>0.286</v>
       </c>
       <c r="Q5" t="n">
-        <v>460</v>
+        <v>81</v>
       </c>
       <c r="R5" t="n">
-        <v>925</v>
+        <v>182</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4970000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="T5" t="n">
-        <v>0.495</v>
+        <v>0.444</v>
       </c>
       <c r="U5" t="n">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="V5" t="n">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="W5" t="n">
-        <v>0.831</v>
+        <v>0.8109999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="n">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="Z5" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AA5" t="n">
-        <v>347</v>
+        <v>33</v>
       </c>
       <c r="AB5" t="n">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="AD5" t="n">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="n">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="AF5" t="n">
-        <v>1192</v>
+        <v>234</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1035,9 +1027,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1048,7 +1038,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1994-95</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1056,7 +1046,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1070,88 +1060,88 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2792</v>
+        <v>1238</v>
       </c>
       <c r="K6" t="n">
-        <v>437</v>
+        <v>173</v>
       </c>
       <c r="L6" t="n">
-        <v>977</v>
+        <v>409</v>
       </c>
       <c r="M6" t="n">
-        <v>0.447</v>
+        <v>0.423</v>
       </c>
       <c r="N6" t="n">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="O6" t="n">
-        <v>327</v>
+        <v>121</v>
       </c>
       <c r="P6" t="n">
-        <v>0.385</v>
+        <v>0.3720000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>311</v>
+        <v>128</v>
       </c>
       <c r="R6" t="n">
-        <v>650</v>
+        <v>288</v>
       </c>
       <c r="S6" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.478</v>
       </c>
-      <c r="T6" t="n">
-        <v>0.512</v>
-      </c>
       <c r="U6" t="n">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="V6" t="n">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="W6" t="n">
-        <v>0.852</v>
+        <v>0.792</v>
       </c>
       <c r="X6" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="n">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="Z6" t="n">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="AA6" t="n">
-        <v>301</v>
+        <v>92</v>
       </c>
       <c r="AB6" t="n">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="AE6" t="n">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="n">
-        <v>1236</v>
+        <v>494</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1159,9 +1149,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1172,7 +1160,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1995-96</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1180,7 +1168,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1190,92 +1178,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>1591</v>
+        <v>1711</v>
       </c>
       <c r="K7" t="n">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="L7" t="n">
-        <v>616</v>
+        <v>527</v>
       </c>
       <c r="M7" t="n">
-        <v>0.399</v>
+        <v>0.393</v>
       </c>
       <c r="N7" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O7" t="n">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="P7" t="n">
-        <v>0.309</v>
+        <v>0.331</v>
       </c>
       <c r="Q7" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="R7" t="n">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="S7" t="n">
-        <v>0.449</v>
+        <v>0.411</v>
       </c>
       <c r="T7" t="n">
-        <v>0.455</v>
+        <v>0.43</v>
       </c>
       <c r="U7" t="n">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="V7" t="n">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8540000000000001</v>
+        <v>0.745</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="n">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="Z7" t="n">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="AA7" t="n">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="AB7" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="AE7" t="n">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="AF7" t="n">
-        <v>695</v>
+        <v>611</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1283,9 +1271,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ7" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1296,7 +1282,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1996-97</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1304,7 +1290,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1314,92 +1300,92 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="J8" t="n">
-        <v>522</v>
+        <v>1662</v>
       </c>
       <c r="K8" t="n">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="L8" t="n">
-        <v>166</v>
+        <v>555</v>
       </c>
       <c r="M8" t="n">
-        <v>0.367</v>
+        <v>0.42</v>
       </c>
       <c r="N8" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="O8" t="n">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="P8" t="n">
-        <v>0.308</v>
+        <v>0.357</v>
       </c>
       <c r="Q8" t="n">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="R8" t="n">
-        <v>101</v>
+        <v>328</v>
       </c>
       <c r="S8" t="n">
-        <v>0.406</v>
+        <v>0.463</v>
       </c>
       <c r="T8" t="n">
-        <v>0.428</v>
+        <v>0.493</v>
       </c>
       <c r="U8" t="n">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="V8" t="n">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="AA8" t="n">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="AB8" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="AE8" t="n">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="AF8" t="n">
-        <v>160</v>
+        <v>670</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1407,9 +1393,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1420,7 +1404,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1997-98</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1428,7 +1412,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1442,88 +1426,88 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>1719</v>
+        <v>1762</v>
       </c>
       <c r="K9" t="n">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="L9" t="n">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4379999999999999</v>
+        <v>0.409</v>
       </c>
       <c r="N9" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="O9" t="n">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="P9" t="n">
-        <v>0.399</v>
+        <v>0.308</v>
       </c>
       <c r="Q9" t="n">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="R9" t="n">
-        <v>291</v>
+        <v>385</v>
       </c>
       <c r="S9" t="n">
-        <v>0.474</v>
+        <v>0.447</v>
       </c>
       <c r="T9" t="n">
-        <v>0.534</v>
+        <v>0.451</v>
       </c>
       <c r="U9" t="n">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="V9" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8170000000000001</v>
+        <v>0.754</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="Y9" t="n">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="Z9" t="n">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="AA9" t="n">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AB9" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="AC9" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AE9" t="n">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="n">
-        <v>658</v>
+        <v>586</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1531,9 +1515,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1544,15 +1526,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1997-98</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOH</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1566,88 +1548,88 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>811</v>
+        <v>869</v>
       </c>
       <c r="K10" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L10" t="n">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="M10" t="n">
-        <v>0.427</v>
+        <v>0.355</v>
       </c>
       <c r="N10" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="O10" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="P10" t="n">
-        <v>0.381</v>
+        <v>0.289</v>
       </c>
       <c r="Q10" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="R10" t="n">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="S10" t="n">
-        <v>0.465</v>
+        <v>0.384</v>
       </c>
       <c r="T10" t="n">
-        <v>0.512</v>
+        <v>0.399</v>
       </c>
       <c r="U10" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="V10" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="W10" t="n">
-        <v>0.679</v>
+        <v>0.78</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Y10" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="Z10" t="n">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="AA10" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB10" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD10" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="AE10" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="n">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1655,9 +1637,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ10" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1668,110 +1648,110 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1997-98</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D11" t="n">
+        <v>31</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1060</v>
+      </c>
+      <c r="K11" t="n">
+        <v>136</v>
+      </c>
+      <c r="L11" t="n">
+        <v>361</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="N11" t="n">
+        <v>58</v>
+      </c>
+      <c r="O11" t="n">
+        <v>164</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>78</v>
+      </c>
+      <c r="R11" t="n">
+        <v>197</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="U11" t="n">
+        <v>69</v>
+      </c>
+      <c r="V11" t="n">
+        <v>86</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="X11" t="n">
         <v>29</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>31</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>908</v>
-      </c>
-      <c r="K11" t="n">
-        <v>137</v>
-      </c>
-      <c r="L11" t="n">
-        <v>307</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>124</v>
+      </c>
+      <c r="AA11" t="n">
         <v>65</v>
       </c>
-      <c r="O11" t="n">
-        <v>158</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="AB11" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>62</v>
+      </c>
+      <c r="AE11" t="n">
         <v>72</v>
       </c>
-      <c r="R11" t="n">
-        <v>149</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="U11" t="n">
-        <v>39</v>
-      </c>
-      <c r="V11" t="n">
-        <v>43</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.907</v>
-      </c>
-      <c r="X11" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>47</v>
-      </c>
       <c r="AF11" t="n">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -1779,9 +1759,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ11" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1792,110 +1770,110 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1998-99</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D12" t="n">
+        <v>31</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NOH</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>39</v>
+      </c>
+      <c r="I12" t="n">
+        <v>37</v>
+      </c>
+      <c r="J12" t="n">
+        <v>967</v>
+      </c>
+      <c r="K12" t="n">
+        <v>128</v>
+      </c>
+      <c r="L12" t="n">
+        <v>325</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="N12" t="n">
+        <v>54</v>
+      </c>
+      <c r="O12" t="n">
+        <v>147</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>74</v>
+      </c>
+      <c r="R12" t="n">
+        <v>178</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="U12" t="n">
+        <v>69</v>
+      </c>
+      <c r="V12" t="n">
+        <v>86</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="X12" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>82</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB12" t="n">
         <v>30</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>49</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1377</v>
-      </c>
-      <c r="K12" t="n">
-        <v>187</v>
-      </c>
-      <c r="L12" t="n">
-        <v>495</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.3779999999999999</v>
-      </c>
-      <c r="N12" t="n">
-        <v>135</v>
-      </c>
-      <c r="O12" t="n">
-        <v>349</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.387</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>52</v>
-      </c>
-      <c r="R12" t="n">
-        <v>146</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="U12" t="n">
-        <v>40</v>
-      </c>
-      <c r="V12" t="n">
-        <v>55</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="X12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>103</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>143</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>56</v>
-      </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AF12" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -1903,9 +1881,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ12" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1916,7 +1892,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1999-00</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1924,7 +1900,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1934,92 +1910,90 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>673</v>
+        <v>93</v>
       </c>
       <c r="K13" t="n">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="M13" t="n">
-        <v>0.36</v>
+        <v>0.222</v>
       </c>
       <c r="N13" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="P13" t="n">
-        <v>0.358</v>
+        <v>0.235</v>
       </c>
       <c r="Q13" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="S13" t="n">
-        <v>0.366</v>
+        <v>0.211</v>
       </c>
       <c r="T13" t="n">
-        <v>0.49</v>
+        <v>0.278</v>
       </c>
       <c r="U13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>16</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.6879999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="n">
         <v>5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>39</v>
-      </c>
       <c r="AE13" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2027,9 +2001,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ13" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2040,17 +2012,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2000-01</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>32</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NBA</t>
@@ -2058,92 +2024,92 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="J14" t="n">
-        <v>155</v>
+        <v>9022</v>
       </c>
       <c r="K14" t="n">
-        <v>16</v>
+        <v>1174</v>
       </c>
       <c r="L14" t="n">
-        <v>44</v>
+        <v>2927</v>
       </c>
       <c r="M14" t="n">
-        <v>0.364</v>
+        <v>0.401</v>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="O14" t="n">
-        <v>32</v>
+        <v>888</v>
       </c>
       <c r="P14" t="n">
-        <v>0.375</v>
+        <v>0.338</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>874</v>
       </c>
       <c r="R14" t="n">
-        <v>12</v>
+        <v>2039</v>
       </c>
       <c r="S14" t="n">
-        <v>0.333</v>
+        <v>0.429</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5</v>
+        <v>0.452</v>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>704</v>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>907</v>
       </c>
       <c r="W14" t="n">
-        <v>0.8</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>952</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>1288</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>679</v>
       </c>
       <c r="AB14" t="n">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>747</v>
       </c>
       <c r="AF14" t="n">
-        <v>48</v>
+        <v>3352</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2151,249 +2117,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2001-02</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>33</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>65</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>20</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>12</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>8</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 72 </t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ15" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>608</v>
-      </c>
-      <c r="I16" t="n">
-        <v>267</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16843</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2540</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5822</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="N16" t="n">
-        <v>605</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1697</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1935</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4125</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1073</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1300</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="X16" t="n">
-        <v>319</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1250</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1569</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2227</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>800</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>205</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>905</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1264</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>6758</v>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 72 </t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ16" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
